--- a/src/experiment/output.xlsx
+++ b/src/experiment/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="392">
   <si>
     <t>ID</t>
   </si>
@@ -621,1050 +621,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -1755,8 +711,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -1788,6 +744,150 @@
         <family val="2"/>
       </rPr>
       <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -1807,24 +907,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(25b,26a,26b,27a) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">ngăm1 </t>
     </r>
     <r>
@@ -2149,15 +1231,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">khi </t>
     </r>
     <r>
@@ -2414,8 +1487,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2423,8 +1496,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2432,8 +1505,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2441,8 +1514,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2450,8 +1523,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2459,8 +1532,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2486,8 +1559,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2495,8 +1568,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2509,21 +1582,12 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">lay5 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2531,8 +1595,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2540,8 +1604,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -2693,876 +1757,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">môt5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kinh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kinh1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">mưng2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ve </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thương </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đưc1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">me5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đau </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đơn1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trong </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">long2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">như </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">phai3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đong1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đanh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">vây5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">xin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">cho </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chung1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tôi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chưa2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đang2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trai1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ây1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">la2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chơ1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">lam2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tôi5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">lôi4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nưa4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">en </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">en </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">giê </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">su </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thư1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hai </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thi2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ngăm1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">khi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">quân </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">dư4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">băt1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chân </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hưu4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đưc1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chua1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">giê </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">su </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">vao2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thanh1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">gia1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">câu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">rut1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ma2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đong1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đanh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nơi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">co1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">gân </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">cung2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">mach5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">mau1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nhiêu2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">cho </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nên </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ca3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">va2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">minh2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đưc1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chua1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">giê </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">su </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">phai3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">khôn1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">khi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ngăm1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">sư5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ây1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thi2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nguyên5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">năm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">kinh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">lay5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">cha </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tai5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thiên </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đôi5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ơn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đưc1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chua1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>giê</t>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>môt5</t>
     </r>
   </si>
   <si>
@@ -3573,6 +1773,69 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
       <t>秋</t>
     </r>
     <r>
@@ -3586,8 +1849,791 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -3692,25 +2738,871 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">kinh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kinh1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mưng2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thương </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đưc1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">me5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đau </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đơn1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">trong </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">long2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">như </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">phai3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đong1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đanh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">vây5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">xin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chung1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tôi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chưa2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đang2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">trai1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ây1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">la2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chơ1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lam2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tôi5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lôi4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nưa4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giê </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">su </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thư1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hai </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thi2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ngăm1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">khi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">quân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dư4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">băt1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hưu4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đưc1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chua1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giê </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">su </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">vao2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thanh1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">gia1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">câu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rut1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ma2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đong1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đanh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nơi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">co1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">gân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cung2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mach5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mau1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nhiêu2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nên </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ca3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">va2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">minh2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đưc1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chua1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giê </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">su </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">phai3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">khôn1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">khi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ngăm1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sư5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ây1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thi2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nguyên5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">năm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kinh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lay5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cha </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tai5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thiên </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đôi5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ơn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đưc1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chua1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giê </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">su </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">xưa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ơ3 </t>
     </r>
     <r>
       <rPr>
@@ -4786,15 +4678,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -4855,15 +4738,6 @@
         <family val="2"/>
       </rPr>
       <t>德</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -4932,15 +4806,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -5001,15 +4866,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">đưc1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(27a,27b,28a,28b) </t>
     </r>
     <r>
       <rPr>
@@ -7457,8 +7313,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -7594,12 +7450,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đa4 </t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
     </r>
     <r>
       <rPr>
@@ -8731,15 +8587,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -8877,15 +8724,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -9225,8 +9063,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -9344,12 +9182,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ơ3 </t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
     </r>
     <r>
       <rPr>
@@ -9721,15 +9559,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -9775,8 +9604,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -9858,15 +9687,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -9908,16 +9728,16 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">su </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đa4 </t>
     </r>
     <r>
       <rPr>
@@ -10438,8 +10258,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -10557,12 +10377,12 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đa4 </t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
     </r>
     <r>
       <rPr>
@@ -10708,15 +10528,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>󰠕</t>
     </r>
     <r>
@@ -10845,15 +10656,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(28b,29a,296,30a,30b) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">tim </t>
     </r>
     <r>
@@ -10977,15 +10779,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -11040,8 +10833,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -11114,15 +10907,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -11173,16 +10957,16 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">su </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đa4 </t>
     </r>
     <r>
       <rPr>
@@ -11242,8 +11026,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -11339,6 +11123,15 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">trai1 </t>
     </r>
     <r>
@@ -11349,15 +11142,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">tim </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đô3 </t>
     </r>
     <r>
       <rPr>
@@ -14588,8 +14372,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -14698,12 +14482,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đa4 </t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
     </r>
     <r>
       <rPr>
@@ -15971,6 +15755,15 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">am </t>
     </r>
     <r>
@@ -15989,25 +15782,13 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">giê </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>su</t>
+      <t>giê</t>
     </r>
   </si>
   <si>
     <t>一</t>
   </si>
   <si>
-    <t>(31a,31b,32a)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -16623,24 +16404,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -16729,25 +16492,7 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">vây5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
     </r>
     <r>
       <rPr>
@@ -17569,15 +17314,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -17702,15 +17438,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">cha </t>
     </r>
     <r>
@@ -18063,15 +17790,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -18168,15 +17886,6 @@
         <family val="2"/>
       </rPr>
       <t>罪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -18223,15 +17932,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">cha </t>
     </r>
     <r>
@@ -18359,15 +18059,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">vây5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
     </r>
     <r>
       <rPr>
@@ -19004,7 +18695,105 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">? </t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>騷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𠹾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>編</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>朱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𨷑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𦀊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>罪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𫃚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>眉</t>
+    </r>
   </si>
   <si>
     <r>
@@ -19014,97 +18803,97 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>騷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𠹾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>編</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>朱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>特</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𨷑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𦀊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>罪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𫃚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>眉</t>
+      <t xml:space="preserve">tao </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chiu5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">troi1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đươc5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mơ3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dây </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tôi5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">buôc5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">con </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>mi</t>
     </r>
   </si>
   <si>
@@ -19115,248 +18904,120 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">tao </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chiu5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">troi1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">cho </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đươc5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">mơ3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">dây </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tôi5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">buôc5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">con </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>mi</t>
+      <t>因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𬂙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>德</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>秋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𠹾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>翁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>北</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>嚕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>陲</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𬂙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>德</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>支</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>秋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𠹾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>翁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>聖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>北</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>嚕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>陲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(32a,32b,33a,33b) </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -19462,15 +19123,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">chôi1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
     </r>
     <r>
       <rPr>
@@ -20074,15 +19726,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>螺</t>
     </r>
     <r>
@@ -20121,15 +19764,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>cha</t>
     </r>
   </si>
@@ -20217,8 +19851,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -20226,21 +19860,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
       <t>拱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -20363,17 +19988,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ơ3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -20639,15 +20255,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -20745,15 +20352,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">cha </t>
     </r>
     <r>
@@ -21097,15 +20695,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -21178,8 +20767,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -21239,15 +20828,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">cha </t>
     </r>
     <r>
@@ -21324,12 +20904,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ô </t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
     </r>
     <r>
       <rPr>
@@ -21709,15 +21289,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -21869,15 +21440,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">cha </t>
     </r>
     <r>
@@ -22132,15 +21694,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>𢚸</t>
     </r>
     <r>
@@ -22597,15 +22150,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -23000,15 +22544,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>曳</t>
     </r>
     <r>
@@ -23022,15 +22557,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -23978,51 +23504,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -24246,15 +23727,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ơ3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">trên </t>
     </r>
     <r>
@@ -24408,15 +23880,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">cha </t>
     </r>
     <r>
@@ -24552,15 +24015,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">nhân </t>
     </r>
     <r>
@@ -24669,15 +24123,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">cha </t>
     </r>
     <r>
@@ -24796,15 +24241,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">thât5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ơ3 </t>
     </r>
     <r>
       <rPr>
@@ -24959,15 +24395,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>強</t>
     </r>
     <r>
@@ -25053,15 +24480,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -26029,15 +25447,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>𨤮</t>
     </r>
     <r>
@@ -26193,15 +25602,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">cha </t>
     </r>
     <r>
@@ -26577,15 +25977,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>𣼭</t>
     </r>
   </si>
@@ -26714,15 +26105,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>cha</t>
     </r>
   </si>
@@ -26801,15 +26183,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -26947,15 +26320,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(36a,36b,37a) </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -27057,8 +26421,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -27122,12 +26486,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ơ3 </t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
     </r>
     <r>
       <rPr>
@@ -27151,15 +26515,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -27270,15 +26625,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">− </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -27770,8 +27116,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -27799,12 +27145,12 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ơ3 </t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
     </r>
     <r>
       <rPr>
@@ -29181,15 +28527,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -29334,15 +28671,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -31802,15 +31130,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -31939,15 +31258,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -32067,15 +31377,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -32204,15 +31505,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(37a,37b) </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -32296,15 +31588,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -32433,15 +31716,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
@@ -33042,35 +32316,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">trên </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hêt1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>moi5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>切</t>
     </r>
     <r>
@@ -33081,106 +32326,139 @@
         <family val="2"/>
       </rPr>
       <t>陽</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">sư5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>thi2</t>
     </r>
   </si>
   <si>
     <t>天</t>
   </si>
   <si>
-    <t>lam2</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𨕭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>歇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>爫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𣋀</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𨕭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>歇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>每</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>時</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>爫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𣋀</t>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">trên </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hêt1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">moi5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sư5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thi2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lam2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>sao</t>
     </r>
   </si>
   <si>
@@ -33191,110 +32469,128 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">sao </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">en </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">en </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">giê </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>su</t>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>亞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>錦</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>亞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>錦</t>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>經</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>觥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>幔</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(39b,40a,40b,41a). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>(37b,38a,38b,39a)</t>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">kinh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">câu2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">giât5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>man2</t>
     </r>
   </si>
   <si>
@@ -33305,34 +32601,61 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>經</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>觥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>幔</t>
+      <t>基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𠫾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𠲖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𠲖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>離</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𪳔</t>
     </r>
   </si>
   <si>
@@ -33343,34 +32666,61 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">kinh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">câu2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">giât5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>man2</t>
+      <t xml:space="preserve">ki </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ri </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">le </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>son</t>
     </r>
   </si>
   <si>
@@ -33390,25 +32740,43 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>𠫾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𠲖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𠲖</t>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𠮿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𠵱</t>
     </r>
     <r>
       <rPr>
@@ -33459,12 +32827,30 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">e </t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">te </t>
     </r>
     <r>
       <rPr>
@@ -33506,279 +32892,207 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>移</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𠮿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>牌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𠵱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>離</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>依</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𪳔</t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>󰝸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>桃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>吒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𨕭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𡗶</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ki </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ri </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">so </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">t </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">te </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">e </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">le </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">i </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>son</t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chua1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dêu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cha </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">trên </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>trơi2</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>󰝸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>桃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>吒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𨕭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𡗶</t>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>疎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>傷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𫀅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𧖱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>碎</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chua1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">dêu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">cha </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ơ3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trên </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>trơi2</t>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thưa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thương </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">xem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chung1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>tôi</t>
     </r>
   </si>
   <si>
@@ -33789,52 +33103,61 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>疎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>傷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𫀅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𧖱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>碎</t>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>娇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𡥵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>贖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>罪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>救</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>世</t>
     </r>
   </si>
   <si>
@@ -33845,59 +33168,68 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">thưa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thương </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">xem </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chung1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>tôi</t>
+      <t xml:space="preserve">chua1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dêu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">con </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chuôc5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tôi5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cưu1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>thê1</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -33910,413 +33242,377 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>娇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𡥵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>贖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>罪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>救</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>世</t>
+      <t>桃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>丕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𠫾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>蘇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>郎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>蘇</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chua1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">dêu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">con </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chuôc5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tôi5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">cưu1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>thê1</t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cha </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">phi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ri </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sang </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>tô</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𠀧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>嵬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>󰜋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
       <t>主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>桃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>丕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𠫾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>蘇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>郎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>蘇</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">cha </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">phi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ri </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">sang </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>tô</t>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ba </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ngôi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">cung4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">la2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">môt5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thiên </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đia5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>chua1</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𠀧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>嵬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>共</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>󰜋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>真</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>主</t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>疎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>朱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𧖱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>碎</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ba </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ngôi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">cung4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">la2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">môt5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thiên </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đia5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chân </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>chua1</t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rât1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thanh1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">đưc1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>ba2</t>
     </r>
   </si>
   <si>
@@ -34327,43 +33623,61 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>疎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>朱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𧖱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>碎</t>
+      <t>窒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>德</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>󰜏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>瑪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>𠫾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t>亞</t>
     </r>
   </si>
   <si>
@@ -34374,111 +33688,8 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">rât1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">thanh1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đưc1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ba2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>ma</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>窒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>聖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>德</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>󰜏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>瑪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>𠫾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t>亞</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">ma </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -34496,15 +33707,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">thưa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -36678,8 +35880,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
@@ -36752,12 +35954,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">đô2 </t>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Nom Na Tong"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_ </t>
     </r>
     <r>
       <rPr>
@@ -38949,15 +38151,6 @@
         <rFont val="Nom Na Tong"/>
         <family val="2"/>
       </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
       <t>属</t>
     </r>
     <r>
@@ -39078,15 +38271,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">thưa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Nom Na Tong"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -40151,28 +39335,28 @@
         <v>143</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="3:4">
       <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
         <v>145</v>
-      </c>
-      <c r="D77" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" t="s">
         <v>147</v>
-      </c>
-      <c r="D78" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>124</v>
@@ -40180,39 +39364,39 @@
     </row>
     <row r="80" spans="3:4">
       <c r="C80" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" t="s">
         <v>150</v>
-      </c>
-      <c r="D80" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="C81" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" t="s">
         <v>152</v>
-      </c>
-      <c r="D81" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="82" spans="3:4">
       <c r="C82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" t="s">
         <v>154</v>
-      </c>
-      <c r="D82" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="C83" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" t="s">
         <v>156</v>
-      </c>
-      <c r="D83" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="84" spans="3:4">
       <c r="C84" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>13</v>
@@ -40220,7 +39404,7 @@
     </row>
     <row r="85" spans="3:4">
       <c r="C85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D85" t="s">
         <v>35</v>
@@ -40231,116 +39415,116 @@
         <v>133</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="C87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" t="s">
         <v>161</v>
-      </c>
-      <c r="D87" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="C88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" t="s">
         <v>163</v>
-      </c>
-      <c r="D88" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="89" spans="3:4">
       <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" t="s">
         <v>165</v>
-      </c>
-      <c r="D89" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="90" spans="3:4">
       <c r="C90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" t="s">
         <v>167</v>
-      </c>
-      <c r="D90" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="91" spans="3:4">
       <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" t="s">
         <v>169</v>
-      </c>
-      <c r="D91" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="C92" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" t="s">
         <v>171</v>
-      </c>
-      <c r="D92" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="93" spans="3:4">
       <c r="C93" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" t="s">
         <v>173</v>
-      </c>
-      <c r="D93" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="94" spans="3:4">
       <c r="C94" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" t="s">
         <v>175</v>
-      </c>
-      <c r="D94" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="C95" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" t="s">
         <v>177</v>
-      </c>
-      <c r="D95" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="C96" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="3:4">
       <c r="C97" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="3:4">
       <c r="C98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>13</v>
@@ -40348,7 +39532,7 @@
     </row>
     <row r="101" spans="3:4">
       <c r="C101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D101" t="s">
         <v>35</v>
@@ -40359,135 +39543,135 @@
         <v>133</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="3:4">
       <c r="C104" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="3:4">
       <c r="C105" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D105" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="3:4">
       <c r="C106" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D106" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="3:4">
       <c r="C107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D107" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="3:4">
       <c r="C108" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="3:4">
       <c r="C109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D109" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="3:4">
       <c r="C110" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="3:4">
       <c r="C111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D111" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="3:4">
       <c r="C112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D112" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="3:4">
       <c r="C113" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="3:4">
       <c r="C114" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D114" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="3:4">
       <c r="C115" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D115" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="3:4">
       <c r="C116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D116" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="3:4">
       <c r="C117" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D117" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="3:4">
       <c r="C118" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D118" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="3:4">
@@ -40495,7 +39679,7 @@
         <v>104</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="3:4">
@@ -40503,23 +39687,23 @@
         <v>13</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="3:4">
       <c r="C121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D121" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="3:4">
       <c r="C122" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D122" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="3:4">
@@ -40527,15 +39711,15 @@
         <v>12</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="3:4">
       <c r="C124" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="3:4">
@@ -40543,84 +39727,84 @@
         <v>13</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="126" spans="3:4">
       <c r="C126" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D126" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127" spans="3:4">
       <c r="C127" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D127" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="3:4">
       <c r="C128" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="3:4">
       <c r="C129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="3:4">
       <c r="C130" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D130" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="3:4">
       <c r="C131" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D131" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="3:4">
       <c r="C132" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D132" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="3:4">
       <c r="C133" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D133" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="3:4">
       <c r="C134" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="3:4">
       <c r="C135" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D135" t="s">
         <v>35</v>
@@ -40628,63 +39812,63 @@
     </row>
     <row r="136" spans="3:4">
       <c r="C136" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D136" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="3:4">
       <c r="C137" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D137" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="3:4">
       <c r="C138" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="3:4">
       <c r="C139" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D139" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="3:4">
       <c r="C140" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D140" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="141" spans="3:4">
       <c r="C141" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D141" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="3:4">
       <c r="C142" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D142" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="3:4">
       <c r="C143" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D143" t="s">
         <v>37</v>
@@ -40692,98 +39876,98 @@
     </row>
     <row r="144" spans="3:4">
       <c r="C144" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D144" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="3:4">
       <c r="C145" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D145" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="3:4">
       <c r="C146" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="3:4">
       <c r="C147" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D147" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="3:4">
       <c r="C148" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D148" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="3:4">
       <c r="C149" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D149" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="150" spans="3:4">
       <c r="C150" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D150" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="3:4">
       <c r="C151" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D151" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="3:4">
       <c r="C152" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="3:4">
       <c r="C153" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D153" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="3:4">
       <c r="C154" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D154" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="3:4">
       <c r="C155" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D155" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="3:4">
@@ -40796,122 +39980,122 @@
     </row>
     <row r="157" spans="3:4">
       <c r="C157" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D157" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="3:4">
       <c r="C158" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D158" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" spans="3:4">
       <c r="C159" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D159" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="3:4">
       <c r="C160" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D160" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="3:4">
       <c r="C161" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D161" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="3:4">
       <c r="C162" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D162" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="3:4">
       <c r="C163" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D163" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="3:4">
       <c r="C164" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D164" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="3:4">
       <c r="C165" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D165" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="3:4">
       <c r="C166" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D166" t="s">
-        <v>304</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="3:4">
       <c r="C167" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D167" t="s">
-        <v>306</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="3:4">
       <c r="C168" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>308</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="3:4">
       <c r="C169" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D169" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="3:4">
       <c r="C170" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D170" t="s">
-        <v>312</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="3:4">
       <c r="C171" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D171" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="3:4">
@@ -40924,58 +40108,58 @@
     </row>
     <row r="173" spans="3:4">
       <c r="C173" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D173" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="174" spans="3:4">
       <c r="C174" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D174" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="175" spans="3:4">
       <c r="C175" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D175" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="3:4">
       <c r="C176" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D176" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="3:4">
       <c r="C177" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D177" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="3:4">
       <c r="C178" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D178" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179" spans="3:4">
       <c r="C179" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D179" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="180" spans="3:4">
@@ -40988,47 +40172,47 @@
     </row>
     <row r="181" spans="3:4">
       <c r="C181" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D181" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="3:4">
       <c r="C182" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D182" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="183" spans="3:4">
       <c r="C183" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D183" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="3:4">
       <c r="C184" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D184" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="3:4">
       <c r="C185" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D185" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" spans="3:4">
       <c r="C186" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D186" t="s">
         <v>35</v>
@@ -41036,7 +40220,7 @@
     </row>
     <row r="187" spans="3:4">
       <c r="C187" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D187" t="s">
         <v>37</v>
@@ -41044,31 +40228,31 @@
     </row>
     <row r="188" spans="3:4">
       <c r="C188" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D188" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="189" spans="3:4">
       <c r="C189" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D189" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="190" spans="3:4">
       <c r="C190" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D190" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="191" spans="3:4">
       <c r="C191" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>13</v>
@@ -41076,79 +40260,79 @@
     </row>
     <row r="192" spans="3:4">
       <c r="C192" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D192" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="193" spans="3:4">
       <c r="C193" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D193" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="3:4">
       <c r="C194" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D194" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D195" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="196" spans="3:4">
       <c r="C196" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D196" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D197" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="198" spans="3:4">
       <c r="C198" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D198" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="3:4">
       <c r="C199" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D199" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="200" spans="3:4">
       <c r="C200" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D200" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="201" spans="3:4">
       <c r="C201" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D201" t="s">
         <v>37</v>
@@ -41156,55 +40340,55 @@
     </row>
     <row r="202" spans="3:4">
       <c r="C202" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D202" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="203" spans="3:4">
       <c r="C203" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="204" spans="3:4">
       <c r="C204" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D204" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="205" spans="3:4">
       <c r="C205" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D205" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="206" spans="3:4">
       <c r="C206" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D206" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="207" spans="3:4">
       <c r="C207" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D207" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="208" spans="3:4">
       <c r="C208" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>13</v>
@@ -41212,82 +40396,82 @@
     </row>
     <row r="209" spans="3:4">
       <c r="C209" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D209" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="210" spans="3:4">
       <c r="C210" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D210" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="211" spans="3:4">
       <c r="C211" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D211" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="212" spans="3:4">
       <c r="C212" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D212" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="3:4">
       <c r="C213" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D213" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="3:4">
       <c r="C214" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D214" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="215" spans="3:4">
       <c r="C215" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D215" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="216" spans="3:4">
       <c r="C216" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D216" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="3:4">
       <c r="C217" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D217" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="218" spans="3:4">
       <c r="C218" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D218" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="219" spans="3:4">
@@ -41295,7 +40479,7 @@
         <v>102</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
